--- a/bugs.xlsx
+++ b/bugs.xlsx
@@ -57,7 +57,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -82,8 +82,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,19 +391,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J13" sqref="J13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -408,7 +411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -416,40 +419,43 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J13" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bugs.xlsx
+++ b/bugs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>شماره پورت، اول خالیه</t>
   </si>
@@ -47,6 +47,16 @@
   </si>
   <si>
     <t>پرینت فارسی</t>
+  </si>
+  <si>
+    <t>دکمه پابان صفحه تحویل پکیج
+گاهی دکمه رو میزنیم، هاید میشه و نمیره صفحه بعد</t>
+  </si>
+  <si>
+    <t>اضافه شدن چندتایی ایتم ها با یکبار کلیک روی دکمه بعدی</t>
+  </si>
+  <si>
+    <t>کلیک روی تیزر</t>
   </si>
 </sst>
 </file>
@@ -393,8 +403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -454,6 +464,21 @@
         <v>10</v>
       </c>
     </row>
+    <row r="10" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
+    </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J13" s="1"/>
     </row>

--- a/bugs.xlsx
+++ b/bugs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>شماره پورت، اول خالیه</t>
   </si>
@@ -23,9 +23,6 @@
   </si>
   <si>
     <t>سنسور نوری کار نمیکنه</t>
-  </si>
-  <si>
-    <t>رادیو باتن ها خیلی کوچیکن</t>
   </si>
   <si>
     <t>ایرادات کلی</t>
@@ -401,10 +398,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -415,10 +412,10 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>4</v>
-      </c>
-      <c r="B1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -426,7 +423,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
@@ -441,7 +438,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.2">
@@ -459,13 +456,13 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+    <row r="9" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -475,12 +472,7 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J13" s="1"/>
+      <c r="J12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/bugs.xlsx
+++ b/bugs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>شماره پورت، اول خالیه</t>
   </si>
@@ -54,6 +54,9 @@
   </si>
   <si>
     <t>کلیک روی تیزر</t>
+  </si>
+  <si>
+    <t>وقتی دستگاه روی حالت اتومات هست، و وارد تنظیمات میشم، اشتباها رادیو باتن دستی انتخاب شده</t>
   </si>
 </sst>
 </file>
@@ -64,7 +67,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Arial"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -401,16 +404,16 @@
   <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>3</v>
       </c>
@@ -418,7 +421,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -426,52 +429,55 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>13</v>
+      </c>
       <c r="J12" s="1"/>
     </row>
   </sheetData>

--- a/bugs.xlsx
+++ b/bugs.xlsx
@@ -1,29 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Dropbox\Farazist-RaspberrypiApp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
-  <si>
-    <t>شماره پورت، اول خالیه</t>
-  </si>
-  <si>
-    <t>QR</t>
-  </si>
-  <si>
-    <t>سنسور نوری کار نمیکنه</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>ایرادات کلی</t>
   </si>
@@ -31,56 +32,151 @@
     <t>ایرادات دستگاه تمام اتومات</t>
   </si>
   <si>
+    <t>ایرادات و باگ ها</t>
+  </si>
+  <si>
+    <t>قابلیت های جدید</t>
+  </si>
+  <si>
+    <t>QR Code</t>
+  </si>
+  <si>
+    <t>پرینت فارسی</t>
+  </si>
+  <si>
+    <t>لایسنس</t>
+  </si>
+  <si>
+    <t>تاریخ و ساعت زیر هم قرار بگیرند</t>
+  </si>
+  <si>
+    <t>تغییرات خواسته شده</t>
+  </si>
+  <si>
+    <t>بارگزاری فایل ویدیویی یا تصویری از طریق اپیکیشن موبایل و یا خواندن از فلش</t>
+  </si>
+  <si>
+    <t>بروزرسانی اپ از طریق تنظیمات</t>
+  </si>
+  <si>
+    <t>نمایش نام کاربر در پنجره های تحویل پکیج و پساتحویل</t>
+  </si>
+  <si>
+    <t>ورود کاربر با id و رمز</t>
+  </si>
+  <si>
+    <t>ایجاد رمز جدید برای دستگاه پس از غیر فعالسازی ان</t>
+  </si>
+  <si>
+    <t>ایجاد یک صفحه به عنوان راهنمای برنامه</t>
+  </si>
+  <si>
     <t>بررسی بطری های fail</t>
   </si>
   <si>
-    <t>لایسنس</t>
-  </si>
-  <si>
-    <t>راهنمای برنامه (؟)</t>
-  </si>
-  <si>
-    <t>درست کردن back صفحات</t>
-  </si>
-  <si>
-    <t>پرینت فارسی</t>
-  </si>
-  <si>
-    <t>دکمه پابان صفحه تحویل پکیج
-گاهی دکمه رو میزنیم، هاید میشه و نمیره صفحه بعد</t>
-  </si>
-  <si>
-    <t>اضافه شدن چندتایی ایتم ها با یکبار کلیک روی دکمه بعدی</t>
-  </si>
-  <si>
-    <t>کلیک روی تیزر</t>
-  </si>
-  <si>
-    <t>وقتی دستگاه روی حالت اتومات هست، و وارد تنظیمات میشم، اشتباها رادیو باتن دستی انتخاب شده</t>
+    <t>دکمه پابان صفحه تحویل پکیج 
+(گاهی دکمه رو میزنیم، هاید میشه و نمیره صفحه بعد)</t>
+  </si>
+  <si>
+    <t>از لوگو همراه با عبارت فرازیست در برنامه استفاده شود</t>
+  </si>
+  <si>
+    <t>سنسور نوری</t>
+  </si>
+  <si>
+    <t>دسته بندی کلی بطری ها در صفحه تحویل پسماند نیمه اتومات</t>
+  </si>
+  <si>
+    <t>نمایش همزمان قیمت بطری و جمع کل در صفحه تحویل پسماند نیمه اتومات</t>
+  </si>
+  <si>
+    <t>اضافه کردن موشن یا وکتور به صفحه لاگین با Qr</t>
+  </si>
+  <si>
+    <t>هزینه انجام (تومان)</t>
+  </si>
+  <si>
+    <t>جمع کل</t>
+  </si>
+  <si>
+    <t>برای ورود اینجا را کلیک کنید در کادر قرار گیرد</t>
+  </si>
+  <si>
+    <t>شماره مالک و اطلاعات شرکت فرازیست در صفحه استارت درج شوند</t>
+  </si>
+  <si>
+    <t>پخش صدا هنگام انجام عملیات</t>
+  </si>
+  <si>
+    <t>اضافه کردن اپ دوربین رسبری به اپ برنامه اصلی</t>
+  </si>
+  <si>
+    <t>دو زبانه کردن برنامه</t>
+  </si>
+  <si>
+    <t>اضافه کردن حالت دارک مود</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
+      <charset val="178"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFFFF00"/>
+      <name val="2  Nazanin"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="2  Nazanin"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color rgb="FF00B050"/>
+      <name val="2  Nazanin"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF00B050"/>
+      <name val="2  Nazanin"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="2  Nazanin"/>
+      <charset val="178"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -88,21 +184,57 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="2"/>
+      </left>
+      <right style="thin">
+        <color theme="2"/>
+      </right>
+      <top style="thin">
+        <color theme="2"/>
+      </top>
+      <bottom style="thin">
+        <color theme="2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -125,39 +257,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -236,251 +368,345 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="38.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="56.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="2.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="59.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A2" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B3" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="3"/>
+      <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A6" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="3"/>
+      <c r="E6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="3">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="67.5" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="3">
         <v>0</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="3"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="D10" s="3"/>
+      <c r="E10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="3">
+        <f>F9+F8+F7+F6+F5+F4+F3</f>
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="J12" s="1"/>
+      <c r="D11" s="3"/>
+      <c r="E11" s="3"/>
+      <c r="F11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+      <c r="C12" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="3"/>
+      <c r="F12" s="3"/>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="E1:F1"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/bugs.xlsx
+++ b/bugs.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
   <si>
     <t>ایرادات کلی</t>
   </si>
@@ -115,13 +115,26 @@
   </si>
   <si>
     <t>اضافه کردن حالت دارک مود</t>
+  </si>
+  <si>
+    <t>خروج از برنامه</t>
+  </si>
+  <si>
+    <t>اصلاح فونت ها</t>
+  </si>
+  <si>
+    <t>خط 51 رو کامنت کردم
+self.image_classifier = ImageClassifier()</t>
+  </si>
+  <si>
+    <t>اضافه کردن شماره پشتیبانی هنگام فراموشی رمز مالک و صفحه غیر فعال سازی دستگاه</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -158,6 +171,12 @@
     <font>
       <sz val="14"/>
       <color theme="0" tint="-4.9989318521683403E-2"/>
+      <name val="2  Nazanin"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="8" tint="0.39997558519241921"/>
       <name val="2  Nazanin"/>
       <charset val="178"/>
     </font>
@@ -203,7 +222,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -225,6 +244,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -509,17 +534,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="B1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+    <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="38.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="56.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="65.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.625" style="1" customWidth="1"/>
     <col min="5" max="5" width="59.375" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.125" style="1" bestFit="1" customWidth="1"/>
@@ -527,16 +552,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="8"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
@@ -563,7 +588,7 @@
       <c r="B3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="8" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="3"/>
@@ -579,7 +604,7 @@
         <v>18</v>
       </c>
       <c r="B4" s="3"/>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="8" t="s">
         <v>17</v>
       </c>
       <c r="D4" s="3"/>
@@ -595,7 +620,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="3"/>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="8" t="s">
         <v>25</v>
       </c>
       <c r="D5" s="3"/>
@@ -611,7 +636,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="3"/>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="8" t="s">
         <v>24</v>
       </c>
       <c r="D6" s="3"/>
@@ -641,7 +666,7 @@
     <row r="8" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A8" s="3"/>
       <c r="B8" s="3"/>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="8" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="3"/>
@@ -655,7 +680,7 @@
     <row r="9" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="8" t="s">
         <v>11</v>
       </c>
       <c r="D9" s="3"/>
@@ -700,6 +725,41 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="3"/>
+      <c r="B13" s="3"/>
+      <c r="C13" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="3"/>
+      <c r="B15" s="3"/>
+      <c r="C15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>32</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/bugs.xlsx
+++ b/bugs.xlsx
@@ -1,30 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Asus\Dropbox\Farazist-RaspberrypiApp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sara\OneDrive\Farazist-RaspberryPi\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="12" documentId="11_36C39EB7C136B419FFB2D215A54ED0BEECB40967" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{71191875-B3FF-4507-9DCD-57350E041DE0}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7905"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>ایرادات کلی</t>
   </si>
@@ -123,18 +130,29 @@
     <t>اصلاح فونت ها</t>
   </si>
   <si>
-    <t>خط 51 رو کامنت کردم
-self.image_classifier = ImageClassifier()</t>
-  </si>
-  <si>
     <t>اضافه کردن شماره پشتیبانی هنگام فراموشی رمز مالک و صفحه غیر فعال سازی دستگاه</t>
+  </si>
+  <si>
+    <t>تایم و تاریخ دستگاه به شمسی نمایش داده بشه</t>
+  </si>
+  <si>
+    <t>صفحه کلید کل صفحه نمایش رو در بر میگیره</t>
+  </si>
+  <si>
+    <t>پس از ورود با Qr code برنامه  بسته میشه</t>
+  </si>
+  <si>
+    <t>فونت ها اصلاح شوند، اعداد انگلیسی هستند</t>
+  </si>
+  <si>
+    <t>برنامه فول اسکرین باز بشه&gt;&gt;&gt; تسک بار باید هاید بشه</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -533,16 +551,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="38.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="65.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.625" style="1" customWidth="1"/>
@@ -551,7 +569,7 @@
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" ht="23.25">
       <c r="A1" s="10" t="s">
         <v>2</v>
       </c>
@@ -563,7 +581,7 @@
       </c>
       <c r="F1" s="10"/>
     </row>
-    <row r="2" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" ht="18">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -581,7 +599,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" ht="18">
       <c r="A3" s="3" t="s">
         <v>4</v>
       </c>
@@ -599,7 +617,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="18">
       <c r="A4" s="3" t="s">
         <v>18</v>
       </c>
@@ -615,7 +633,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="18">
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
@@ -631,7 +649,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="18">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
@@ -647,12 +665,12 @@
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="54">
       <c r="A7" s="4" t="s">
         <v>16</v>
       </c>
       <c r="B7" s="3"/>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="8" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="3"/>
@@ -663,8 +681,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A8" s="3"/>
+    <row r="8" spans="1:6" ht="18">
+      <c r="A8" s="3" t="s">
+        <v>37</v>
+      </c>
       <c r="B8" s="3"/>
       <c r="C8" s="8" t="s">
         <v>20</v>
@@ -677,8 +697,10 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A9" s="3"/>
+    <row r="9" spans="1:6" ht="18">
+      <c r="A9" s="3" t="s">
+        <v>33</v>
+      </c>
       <c r="B9" s="3"/>
       <c r="C9" s="8" t="s">
         <v>11</v>
@@ -691,10 +713,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="30" x14ac:dyDescent="0.2">
-      <c r="A10" s="3"/>
+    <row r="10" spans="1:6" ht="23.25">
+      <c r="A10" s="3" t="s">
+        <v>34</v>
+      </c>
       <c r="B10" s="3"/>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="8" t="s">
         <v>12</v>
       </c>
       <c r="D10" s="3"/>
@@ -706,8 +730,10 @@
         <v>2100</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A11" s="3"/>
+    <row r="11" spans="1:6" ht="18">
+      <c r="A11" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
         <v>13</v>
@@ -716,8 +742,10 @@
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
     </row>
-    <row r="12" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A12" s="3"/>
+    <row r="12" spans="1:6" ht="18">
+      <c r="A12" s="3" t="s">
+        <v>36</v>
+      </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
         <v>21</v>
@@ -726,17 +754,17 @@
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="18">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
-    <row r="14" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="18">
       <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="8" t="s">
@@ -746,7 +774,7 @@
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="18">
       <c r="A15" s="3"/>
       <c r="B15" s="3"/>
       <c r="C15" s="8" t="s">
@@ -756,10 +784,8 @@
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
-        <v>32</v>
-      </c>
+    <row r="16" spans="1:6">
+      <c r="A16" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/bugs.xlsx
+++ b/bugs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sara\OneDrive\Farazist-RaspberryPi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b08e6c70a408913c/Farazist-RaspberryPi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="11_36C39EB7C136B419FFB2D215A54ED0BEECB40967" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{71191875-B3FF-4507-9DCD-57350E041DE0}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="11_36C39EB7C136B419FFB2D215A54ED0BEECB40967" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5A1CC476-6941-4356-86A2-097D173F8C79}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-8580" yWindow="3000" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>ایرادات کلی</t>
   </si>
@@ -43,9 +43,6 @@
   </si>
   <si>
     <t>قابلیت های جدید</t>
-  </si>
-  <si>
-    <t>QR Code</t>
   </si>
   <si>
     <t>پرینت فارسی</t>
@@ -136,16 +133,46 @@
     <t>تایم و تاریخ دستگاه به شمسی نمایش داده بشه</t>
   </si>
   <si>
-    <t>صفحه کلید کل صفحه نمایش رو در بر میگیره</t>
-  </si>
-  <si>
     <t>پس از ورود با Qr code برنامه  بسته میشه</t>
   </si>
   <si>
     <t>فونت ها اصلاح شوند، اعداد انگلیسی هستند</t>
   </si>
   <si>
-    <t>برنامه فول اسکرین باز بشه&gt;&gt;&gt; تسک بار باید هاید بشه</t>
+    <t>موقع وارد کردن اطلاعات، تکست باکس نره زیر کیبورد</t>
+  </si>
+  <si>
+    <t>علامت لودینگ روی ماوس موقع کلیک روی فایل اجرایی برنامه</t>
+  </si>
+  <si>
+    <t>موقع کلیک روی ذخیره صفحه ستینگ، پیامی بده که تغییرات ذخیره شد</t>
+  </si>
+  <si>
+    <t>با زدن دکمه پایان صفحه تحویل پکیج اگر موتور روشن هست،
+ بلافاصله خاموش بشه</t>
+  </si>
+  <si>
+    <t>فونت ها کنار کد ذخیره بشن</t>
+  </si>
+  <si>
+    <t>با کلیک روی هر ایتم روی صفحه تحویل پکیج، اگر موتور روشن هست
+شمارنده 5 ثانیه ای موتور از 0 و از ابتدا
+شروع به کار بکنه</t>
+  </si>
+  <si>
+    <t>زمان روشن بودن موتور 10 ثانیه بشه</t>
+  </si>
+  <si>
+    <t>پرینت: وسط چین بشه، لوگو همراه با اسم فرازیست جایگزین لوگو ساده بشه، فاکتور چاپ بشه، 
+ریال به تومان اصلاح بشه، تاریخ و ساعت در فاکتور چاپ بشه،
+شماره سریال دستگاه در فاتور چاپ بشه</t>
+  </si>
+  <si>
+    <t>صفحه لودینگ داشته باشیم</t>
+  </si>
+  <si>
+    <t>موقعی که روی دکمه ها کلیک میکنیم یا اکشنی، تغییر رنگی 
+چیزی داشته باشن</t>
   </si>
 </sst>
 </file>
@@ -240,7 +267,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -265,9 +292,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -552,15 +576,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="45" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="56.75" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="21" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="65.75" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.625" style="1" customWidth="1"/>
@@ -570,16 +594,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="10"/>
+      <c r="F1" s="9"/>
     </row>
     <row r="2" spans="1:6" ht="18">
       <c r="A2" s="6" t="s">
@@ -589,29 +613,29 @@
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="18">
       <c r="A3" s="3" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D3" s="3"/>
       <c r="E3" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F3" s="3">
         <v>200</v>
@@ -619,15 +643,15 @@
     </row>
     <row r="4" spans="1:6" ht="18">
       <c r="A4" s="3" t="s">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="B4" s="3"/>
       <c r="C4" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3"/>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F4" s="3">
         <v>1500</v>
@@ -639,43 +663,43 @@
       </c>
       <c r="B5" s="3"/>
       <c r="C5" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3"/>
       <c r="E5" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="18">
-      <c r="A6" s="3" t="s">
-        <v>6</v>
+    <row r="6" spans="1:6" ht="36">
+      <c r="A6" s="4" t="s">
+        <v>15</v>
       </c>
       <c r="B6" s="3"/>
       <c r="C6" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="3"/>
       <c r="E6" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F6" s="3">
         <v>300</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="54">
-      <c r="A7" s="4" t="s">
-        <v>16</v>
+    <row r="7" spans="1:6" ht="18">
+      <c r="A7" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="B7" s="3"/>
       <c r="C7" s="8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" s="3"/>
       <c r="E7" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F7" s="3">
         <v>0</v>
@@ -683,15 +707,15 @@
     </row>
     <row r="8" spans="1:6" ht="18">
       <c r="A8" s="3" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B8" s="3"/>
       <c r="C8" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F8" s="3">
         <v>0</v>
@@ -699,15 +723,15 @@
     </row>
     <row r="9" spans="1:6" ht="18">
       <c r="A9" s="3" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B9" s="3"/>
       <c r="C9" s="8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F9" s="3">
         <v>0</v>
@@ -715,15 +739,15 @@
     </row>
     <row r="10" spans="1:6" ht="23.25">
       <c r="A10" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="3"/>
       <c r="C10" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D10" s="3"/>
       <c r="E10" s="5" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" s="3">
         <f>F9+F8+F7+F6+F5+F4+F3</f>
@@ -732,11 +756,11 @@
     </row>
     <row r="11" spans="1:6" ht="18">
       <c r="A11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="3"/>
       <c r="C11" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -744,48 +768,115 @@
     </row>
     <row r="12" spans="1:6" ht="18">
       <c r="A12" s="3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B12" s="3"/>
       <c r="C12" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
     </row>
-    <row r="13" spans="1:6" ht="18">
-      <c r="A13" s="3"/>
+    <row r="13" spans="1:6" ht="36">
+      <c r="A13" s="4" t="s">
+        <v>38</v>
+      </c>
       <c r="B13" s="3"/>
       <c r="C13" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="18">
-      <c r="A14" s="3"/>
+      <c r="A14" s="3" t="s">
+        <v>39</v>
+      </c>
       <c r="B14" s="3"/>
       <c r="C14" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
     </row>
-    <row r="15" spans="1:6" ht="18">
-      <c r="A15" s="3"/>
+    <row r="15" spans="1:6" ht="72">
+      <c r="A15" s="4" t="s">
+        <v>40</v>
+      </c>
       <c r="B15" s="3"/>
       <c r="C15" s="8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
     </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="9"/>
+    <row r="16" spans="1:6" ht="18">
+      <c r="A16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" s="3"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+    </row>
+    <row r="17" spans="1:6" ht="72">
+      <c r="A17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="3"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+    </row>
+    <row r="18" spans="1:6" ht="18">
+      <c r="A18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="3"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+    </row>
+    <row r="19" spans="1:6" ht="36">
+      <c r="A19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="3"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+    </row>
+    <row r="20" spans="1:6" ht="18">
+      <c r="A20" s="4"/>
+      <c r="B20" s="3"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+    </row>
+    <row r="21" spans="1:6" ht="18">
+      <c r="A21" s="4"/>
+      <c r="B21" s="3"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+    </row>
+    <row r="22" spans="1:6" ht="18">
+      <c r="A22" s="4"/>
+      <c r="B22" s="3"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/bugs.xlsx
+++ b/bugs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b08e6c70a408913c/Farazist-RaspberryPi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="11_36C39EB7C136B419FFB2D215A54ED0BEECB40967" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5A1CC476-6941-4356-86A2-097D173F8C79}"/>
+  <xr:revisionPtr revIDLastSave="45" documentId="11_36C39EB7C136B419FFB2D215A54ED0BEECB40967" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F51CE302-BB2C-4CF0-896E-425F20F740FC}"/>
   <bookViews>
-    <workbookView xWindow="-8580" yWindow="3000" windowWidth="15375" windowHeight="7995" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -163,16 +163,56 @@
     <t>زمان روشن بودن موتور 10 ثانیه بشه</t>
   </si>
   <si>
-    <t>پرینت: وسط چین بشه، لوگو همراه با اسم فرازیست جایگزین لوگو ساده بشه، فاکتور چاپ بشه، 
-ریال به تومان اصلاح بشه، تاریخ و ساعت در فاکتور چاپ بشه،
-شماره سریال دستگاه در فاتور چاپ بشه</t>
-  </si>
-  <si>
     <t>صفحه لودینگ داشته باشیم</t>
   </si>
   <si>
     <t>موقعی که روی دکمه ها کلیک میکنیم یا اکشنی، تغییر رنگی 
 چیزی داشته باشن</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">پرینت: 
+وسط چین بشه، 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="2  Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t>لوگو همراه با اسم فرازیست جایگزین لوگو ساده بشه،</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="2  Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t xml:space="preserve"> 
+فاکتور چاپ بشه، 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FF00B050"/>
+        <rFont val="2  Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t>ریال به تومان اصلاح بشه،</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="2  Nazanin"/>
+        <charset val="178"/>
+      </rPr>
+      <t xml:space="preserve">
+ تاریخ و ساعت در فاکتور چاپ بشه،
+شماره سریال دستگاه در فاتور چاپ بشه</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -190,20 +230,7 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FFFFFF00"/>
-      <name val="2  Nazanin"/>
-      <charset val="178"/>
-    </font>
-    <font>
-      <sz val="14"/>
       <color theme="0"/>
-      <name val="2  Nazanin"/>
-      <charset val="178"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color rgb="FF00B050"/>
       <name val="2  Nazanin"/>
       <charset val="178"/>
     </font>
@@ -215,13 +242,26 @@
     </font>
     <font>
       <sz val="14"/>
-      <color theme="0" tint="-4.9989318521683403E-2"/>
       <name val="2  Nazanin"/>
       <charset val="178"/>
     </font>
     <font>
       <sz val="14"/>
-      <color theme="8" tint="0.39997558519241921"/>
+      <color theme="1"/>
+      <name val="2  Nazanin"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="2  Nazanin"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="0"/>
       <name val="2  Nazanin"/>
       <charset val="178"/>
     </font>
@@ -235,12 +275,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1" tint="0.14999847407452621"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -263,44 +303,267 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="11">
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <name val="2  Nazanin"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2"/>
+        </left>
+        <right style="thin">
+          <color theme="2"/>
+        </right>
+        <top style="thin">
+          <color theme="2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <name val="2  Nazanin"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="2"/>
+        </left>
+        <right style="thin">
+          <color theme="2"/>
+        </right>
+        <top style="thin">
+          <color theme="2"/>
+        </top>
+        <bottom style="thin">
+          <color theme="2"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="2"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <name val="2  Nazanin"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <sz val="14"/>
+        <color auto="1"/>
+        <name val="2  Nazanin"/>
+        <charset val="178"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color theme="2"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -311,6 +574,29 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{AC41BA4B-C3C8-4DE7-9DD2-BEB48AAEFFD1}" name="Table2" displayName="Table2" ref="A2:C20" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9" tableBorderDxfId="8">
+  <autoFilter ref="A2:C20" xr:uid="{2B7F8595-112E-4FD7-AB1F-92C229A7173B}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{E0226942-565C-414D-8810-D8406FB2C5CF}" name="ایرادات کلی" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{6CCD3D1C-42A1-4294-B192-B6C6905EF79C}" name="ایرادات دستگاه تمام اتومات" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{7A54BD0F-3699-4996-9EFF-B3E82478F6FC}" name="تغییرات خواسته شده" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{06E4F6A6-61C5-4FA1-B9B0-F35A8EC067BE}" name="Table5" displayName="Table5" ref="E2:F10" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3" tableBorderDxfId="2">
+  <autoFilter ref="E2:F10" xr:uid="{B73557C6-C94D-4711-A4E8-9C8CFBACF5CF}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{6A1D314E-635A-46B3-95C4-1D7F11BC1382}" name="قابلیت های جدید" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{AFC7FF74-7D3D-4C3F-8FBB-E782E84F1BB4}" name="هزینه انجام (تومان)" dataDxfId="0"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -576,50 +862,49 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F22"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A10" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="56.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="65.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="70" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="2.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="59.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="64.625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="9"/>
-    </row>
-    <row r="2" spans="1:6" ht="18">
-      <c r="A2" s="6" t="s">
+      <c r="F1" s="11"/>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="7" t="s">
         <v>21</v>
       </c>
     </row>
@@ -627,17 +912,16 @@
       <c r="A3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="3">
+      <c r="F3" s="8">
         <v>200</v>
       </c>
     </row>
@@ -645,15 +929,14 @@
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="8" t="s">
+      <c r="B4" s="4"/>
+      <c r="C4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="8">
         <v>1500</v>
       </c>
     </row>
@@ -661,31 +944,29 @@
       <c r="A5" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="8" t="s">
+      <c r="B5" s="4"/>
+      <c r="C5" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="8">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="36">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="8" t="s">
+      <c r="B6" s="4"/>
+      <c r="C6" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="8">
         <v>300</v>
       </c>
     </row>
@@ -693,31 +974,29 @@
       <c r="A7" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="8" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="8">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="18">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="8" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="8">
         <v>0</v>
       </c>
     </row>
@@ -725,15 +1004,14 @@
       <c r="A9" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="8" t="s">
+      <c r="B9" s="4"/>
+      <c r="C9" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="8">
         <v>0</v>
       </c>
     </row>
@@ -741,15 +1019,14 @@
       <c r="A10" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="8" t="s">
+      <c r="B10" s="4"/>
+      <c r="C10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="5" t="s">
+      <c r="E10" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="8">
         <f>F9+F8+F7+F6+F5+F4+F3</f>
         <v>2100</v>
       </c>
@@ -758,132 +1035,90 @@
       <c r="A11" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="4"/>
       <c r="C11" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
     </row>
     <row r="12" spans="1:6" ht="18">
       <c r="A12" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="4"/>
       <c r="C12" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" ht="36">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="8" t="s">
+      <c r="B13" s="4"/>
+      <c r="C13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
     </row>
     <row r="14" spans="1:6" ht="18">
       <c r="A14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="8" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
     </row>
     <row r="15" spans="1:6" ht="72">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="8" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
     </row>
     <row r="16" spans="1:6" ht="18">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="8"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-    </row>
-    <row r="17" spans="1:6" ht="72">
-      <c r="A17" s="4" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" ht="126">
+      <c r="A17" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" ht="18">
+      <c r="A18" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="8"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-    </row>
-    <row r="18" spans="1:6" ht="18">
-      <c r="A18" s="4" t="s">
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" ht="36">
+      <c r="A19" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="8"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-    </row>
-    <row r="19" spans="1:6" ht="36">
-      <c r="A19" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="8"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" ht="18">
-      <c r="A20" s="4"/>
-      <c r="B20" s="3"/>
-      <c r="C20" s="8"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-    </row>
-    <row r="21" spans="1:6" ht="18">
-      <c r="A21" s="4"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="8"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-    </row>
-    <row r="22" spans="1:6" ht="18">
-      <c r="A22" s="4"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="8"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" ht="18">
+      <c r="A20" s="12"/>
+      <c r="B20" s="13"/>
+      <c r="C20" s="13"/>
     </row>
   </sheetData>
   <mergeCells count="2">
+    <mergeCell ref="E1:F1"/>
     <mergeCell ref="A1:C1"/>
-    <mergeCell ref="E1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
 </worksheet>
 </file>
--- a/bugs.xlsx
+++ b/bugs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b08e6c70a408913c/Farazist-RaspberryPi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="45" documentId="11_36C39EB7C136B419FFB2D215A54ED0BEECB40967" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{F51CE302-BB2C-4CF0-896E-425F20F740FC}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="11_36C39EB7C136B419FFB2D215A54ED0BEECB40967" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{947D2E39-0E46-4AC8-BC6C-6C3F0B8BCFD1}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>ایرادات کلی</t>
   </si>
@@ -213,6 +213,9 @@
  تاریخ و ساعت در فاکتور چاپ بشه،
 شماره سریال دستگاه در فاتور چاپ بشه</t>
     </r>
+  </si>
+  <si>
+    <t>رفع مشکل ورود اطلاعات با کیبورد برنامه و عدم ورود</t>
   </si>
 </sst>
 </file>
@@ -367,14 +370,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -864,8 +867,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -880,16 +883,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="11"/>
+      <c r="F1" s="12"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -1105,9 +1108,11 @@
       <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" ht="18">
-      <c r="A20" s="12"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
+      <c r="A20" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/bugs.xlsx
+++ b/bugs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b08e6c70a408913c/Farazist-RaspberryPi/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="11_36C39EB7C136B419FFB2D215A54ED0BEECB40967" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{947D2E39-0E46-4AC8-BC6C-6C3F0B8BCFD1}"/>
+  <xr:revisionPtr revIDLastSave="54" documentId="11_36C39EB7C136B419FFB2D215A54ED0BEECB40967" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{65B1DD5E-0E0A-440A-A0F2-D273BFDA519C}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -155,11 +155,6 @@
     <t>فونت ها کنار کد ذخیره بشن</t>
   </si>
   <si>
-    <t>با کلیک روی هر ایتم روی صفحه تحویل پکیج، اگر موتور روشن هست
-شمارنده 5 ثانیه ای موتور از 0 و از ابتدا
-شروع به کار بکنه</t>
-  </si>
-  <si>
     <t>زمان روشن بودن موتور 10 ثانیه بشه</t>
   </si>
   <si>
@@ -170,59 +165,28 @@
 چیزی داشته باشن</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">پرینت: 
+    <t>رفع مشکل ورود اطلاعات با کیبورد برنامه و عدم ورود</t>
+  </si>
+  <si>
+    <t>با کلیک روی هر ایتم روی صفحه تحویل پکیج، اگر موتور روشن هست
+شمارنده موتور از 0 و از ابتدا
+شروع به کار بکنه</t>
+  </si>
+  <si>
+    <t>پرینت: 
 وسط چین بشه، 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="2  Nazanin"/>
-        <charset val="178"/>
-      </rPr>
-      <t>لوگو همراه با اسم فرازیست جایگزین لوگو ساده بشه،</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="2  Nazanin"/>
-        <charset val="178"/>
-      </rPr>
-      <t xml:space="preserve"> 
+لوگو همراه با اسم فرازیست جایگزین لوگو ساده بشه، 
 فاکتور چاپ بشه، 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color rgb="FF00B050"/>
-        <rFont val="2  Nazanin"/>
-        <charset val="178"/>
-      </rPr>
-      <t>ریال به تومان اصلاح بشه،</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <rFont val="2  Nazanin"/>
-        <charset val="178"/>
-      </rPr>
-      <t xml:space="preserve">
+ریال به تومان اصلاح بشه،
  تاریخ و ساعت در فاکتور چاپ بشه،
 شماره سریال دستگاه در فاتور چاپ بشه</t>
-    </r>
-  </si>
-  <si>
-    <t>رفع مشکل ورود اطلاعات با کیبورد برنامه و عدم ورود</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -265,6 +229,12 @@
       <b/>
       <sz val="18"/>
       <color theme="0"/>
+      <name val="2  Nazanin"/>
+      <charset val="178"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
       <name val="2  Nazanin"/>
       <charset val="178"/>
     </font>
@@ -338,7 +308,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -373,10 +343,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -867,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25"/>
@@ -883,16 +859,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="23.25">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
       <c r="D1" s="2"/>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="12"/>
+      <c r="F1" s="13"/>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
@@ -1019,7 +995,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="23.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="14" t="s">
         <v>33</v>
       </c>
       <c r="B10" s="4"/>
@@ -1035,7 +1011,7 @@
       </c>
     </row>
     <row r="11" spans="1:6" ht="18">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B11" s="4"/>
@@ -1044,7 +1020,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="18">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="6" t="s">
         <v>37</v>
       </c>
       <c r="B12" s="4"/>
@@ -1053,7 +1029,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="36">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="15" t="s">
         <v>38</v>
       </c>
       <c r="B13" s="4"/>
@@ -1071,8 +1047,8 @@
       </c>
     </row>
     <row r="15" spans="1:6" ht="72">
-      <c r="A15" s="5" t="s">
-        <v>40</v>
+      <c r="A15" s="15" t="s">
+        <v>44</v>
       </c>
       <c r="B15" s="4"/>
       <c r="C15" s="6" t="s">
@@ -1081,35 +1057,35 @@
     </row>
     <row r="16" spans="1:6" ht="18">
       <c r="A16" s="10" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" ht="126">
-      <c r="A17" s="5" t="s">
-        <v>44</v>
+      <c r="A17" s="15" t="s">
+        <v>45</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" ht="18">
       <c r="A18" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" ht="36">
       <c r="A19" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" ht="18">
-      <c r="A20" s="13" t="s">
-        <v>45</v>
+      <c r="A20" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
